--- a/application/simulate_conn_info.xlsx
+++ b/application/simulate_conn_info.xlsx
@@ -14,19 +14,241 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="217">
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">920, 919 </t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 102, </t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">804, 803 </t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">921, 920 </t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">923, 922 </t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301 302, </t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302 101, </t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">919, 918 </t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">922, 921 </t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">918, 917 </t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102 103, </t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">819, 818 </t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103 104, </t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">803, 802 </t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">924 923, </t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">805, 804 </t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">807, 806 </t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">925, 924 </t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440, 430 </t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">917 916, </t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">802, 801 </t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">806, 805 </t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">818, 817 </t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">803 440, </t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">926, 925 </t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">430, 420 </t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">812, 811 </t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">916, 915 </t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">817, 816 </t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">927, 926 </t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">802 430, </t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">816, 815 </t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
-    <t>Single</t>
-  </si>
-  <si>
     <t xml:space="preserve">915, 914 </t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">916, 915 </t>
+    <t>51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">813, 812 </t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">802 420, </t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420, 410 </t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">811, 810 </t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">814, 813 </t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301 310, </t>
   </si>
   <si>
     <t>33</t>
@@ -35,22 +257,52 @@
     <t xml:space="preserve">914, 913 </t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">917 916, </t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">802, 801 </t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">803, 802 </t>
+    <t>74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104 105, </t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">810, 809 </t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">802, 105 </t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">815, 814 </t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">801 410, </t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302 320, </t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">912, 911 </t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">809, 808 </t>
   </si>
   <si>
     <t>34</t>
@@ -59,46 +311,88 @@
     <t xml:space="preserve">913, 912 </t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">918, 917 </t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">804, 803 </t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">919, 918 </t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">805, 804 </t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">920, 919 </t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">807, 806 </t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">806, 805 </t>
+    <t>18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">929, 928 </t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">928, 927 </t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102 120, </t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">911, 910 </t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 170, </t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 110, </t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110 120, </t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">930, 929 </t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">931, 930 </t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301 330, </t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170 180, </t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140, 130 </t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102 170, </t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160, 150 </t>
   </si>
   <si>
     <t>37</t>
@@ -107,58 +401,28 @@
     <t xml:space="preserve">910 909, </t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">818, 817 </t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">817, 816 </t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">819, 818 </t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">922, 921 </t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">921, 920 </t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">923, 922 </t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">816, 815 </t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103 104, </t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">803 440, </t>
+    <t>85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103 180, </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">951, 950 </t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">932, 931 </t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">935, 934 </t>
   </si>
   <si>
     <t>38</t>
@@ -167,34 +431,22 @@
     <t xml:space="preserve">909, 908 </t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">815, 814 </t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">814, 813 </t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">926, 925 </t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">925, 924 </t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">924 923, </t>
+    <t>13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">934, 933 </t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">936, 935 </t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">933, 932 </t>
   </si>
   <si>
     <t>39</t>
@@ -203,16 +455,16 @@
     <t xml:space="preserve">908, 907 </t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301 302, </t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">927, 926 </t>
+    <t>89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103 150, </t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">937 936, </t>
   </si>
   <si>
     <t>40</t>
@@ -221,88 +473,28 @@
     <t xml:space="preserve">907, 906 </t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">802 420, </t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">430, 420 </t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">802 430, </t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">813, 812 </t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440, 430 </t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101 102, </t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302 101, </t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">801 410, </t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">812, 811 </t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">929, 928 </t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104 105, </t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420, 410 </t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">928, 927 </t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102 103, </t>
+    <t>91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102 130, </t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104 160, </t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201 202, </t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102 140, </t>
   </si>
   <si>
     <t>41</t>
@@ -311,28 +503,28 @@
     <t xml:space="preserve">906, 904 </t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301 310, </t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302 320, </t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">811, 810 </t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110 120, </t>
+    <t>94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203 204, </t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204 205, </t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202 203, </t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">806, 205 </t>
   </si>
   <si>
     <t>42</t>
@@ -341,46 +533,46 @@
     <t xml:space="preserve">904 903, </t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">931, 930 </t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301 330, </t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">930, 929 </t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">802, 105 </t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160, 150 </t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170 180, </t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140, 130 </t>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">938, 937 </t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210 220, </t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220 270, </t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201 210, </t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202 220, </t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">939, 938 </t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270 280, </t>
   </si>
   <si>
     <t>43</t>
@@ -389,46 +581,16 @@
     <t xml:space="preserve">903, 902 </t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102 120, </t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">810, 809 </t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101 110, </t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120 170, </t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102 170, </t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103 180, </t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">937 936, </t>
+    <t>7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">940, 939 </t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">943, 942 </t>
   </si>
   <si>
     <t>2</t>
@@ -437,12 +599,6 @@
     <t xml:space="preserve">945, 944 </t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">939, 938 </t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -455,34 +611,22 @@
     <t xml:space="preserve">942, 941 </t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">935, 934 </t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">943, 942 </t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">938, 937 </t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">936, 935 </t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">940, 939 </t>
+    <t>44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">902, 901 </t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203 280, </t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202 270, </t>
   </si>
   <si>
     <t>6</t>
@@ -491,130 +635,10 @@
     <t xml:space="preserve">941, 940 </t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">951, 950 </t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">934, 933 </t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">911, 910 </t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">902, 901 </t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">912, 911 </t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">932, 931 </t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">933, 932 </t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104 160, </t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">809, 808 </t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201 202, </t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102 140, </t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204 205, </t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203 204, </t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102 130, </t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202 203, </t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103 150, </t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210 220, </t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270 280, </t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">806, 205 </t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201 210, </t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203 280, </t>
+    <t>108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202 240, </t>
   </si>
   <si>
     <t>105</t>
@@ -623,46 +647,22 @@
     <t xml:space="preserve">240, 230 </t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204 260, </t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260, 250 </t>
+  </si>
+  <si>
     <t>107</t>
   </si>
   <si>
     <t xml:space="preserve">203 250, </t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202 270, </t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204 260, </t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202 220, </t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260, 250 </t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220 270, </t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202 240, </t>
   </si>
 </sst>
 </file>
@@ -721,25 +721,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="n">
-        <v>835.7777777777777</v>
+        <v>836.6666666666666</v>
       </c>
       <c r="F1" t="n">
-        <v>1043.7777777777776</v>
+        <v>906.8888888888888</v>
       </c>
       <c r="G1" t="n">
-        <v>838.4444444444443</v>
+        <v>836.6666666666666</v>
       </c>
       <c r="H1" t="n">
-        <v>1067.3333333333333</v>
+        <v>938.4444444444445</v>
       </c>
       <c r="I1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
@@ -750,22 +750,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>811.3333333333334</v>
+        <v>1008.888888888889</v>
       </c>
       <c r="F2" t="n">
-        <v>1044.6666666666667</v>
+        <v>1725.7777777777776</v>
       </c>
       <c r="G2" t="n">
-        <v>829.3333333333334</v>
+        <v>1026.8888888888891</v>
       </c>
       <c r="H2" t="n">
-        <v>1044.6666666666667</v>
+        <v>1725.7777777777776</v>
       </c>
       <c r="I2" t="n">
         <v>1.0</v>
@@ -779,22 +779,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>837.5555555555557</v>
+        <v>835.5555555555557</v>
       </c>
       <c r="F3" t="n">
-        <v>1083.111111111111</v>
+        <v>1652.888888888889</v>
       </c>
       <c r="G3" t="n">
-        <v>837.111111111111</v>
+        <v>836.888888888889</v>
       </c>
       <c r="H3" t="n">
-        <v>1108.4444444444446</v>
+        <v>1677.7777777777776</v>
       </c>
       <c r="I3" t="n">
         <v>1.0</v>
@@ -808,22 +808,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>810.4444444444443</v>
+        <v>838.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1014.0</v>
+        <v>862.4444444444445</v>
       </c>
       <c r="G4" t="n">
-        <v>828.4444444444443</v>
+        <v>837.111111111111</v>
       </c>
       <c r="H4" t="n">
-        <v>1014.0</v>
+        <v>894.0</v>
       </c>
       <c r="I4" t="n">
         <v>1.0</v>
@@ -837,22 +837,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>836.0</v>
+        <v>811.7777777777777</v>
       </c>
       <c r="F5" t="n">
-        <v>1736.888888888889</v>
+        <v>824.2222222222222</v>
       </c>
       <c r="G5" t="n">
-        <v>836.888888888889</v>
+        <v>829.7777777777777</v>
       </c>
       <c r="H5" t="n">
-        <v>1768.4444444444443</v>
+        <v>824.2222222222222</v>
       </c>
       <c r="I5" t="n">
         <v>1.0</v>
@@ -866,22 +866,22 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>834.6666666666666</v>
+        <v>1103.5555555555557</v>
       </c>
       <c r="F6" t="n">
-        <v>1700.4444444444443</v>
+        <v>1724.888888888889</v>
       </c>
       <c r="G6" t="n">
-        <v>836.888888888889</v>
+        <v>1121.5555555555557</v>
       </c>
       <c r="H6" t="n">
-        <v>1721.3333333333333</v>
+        <v>1724.888888888889</v>
       </c>
       <c r="I6" t="n">
         <v>1.0</v>
@@ -895,22 +895,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>836.2222222222223</v>
+        <v>1058.6666666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>1126.6666666666667</v>
+        <v>1723.5555555555557</v>
       </c>
       <c r="G7" t="n">
-        <v>838.4444444444443</v>
+        <v>1076.6666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1154.6666666666667</v>
+        <v>1723.5555555555557</v>
       </c>
       <c r="I7" t="n">
         <v>1.0</v>
@@ -924,25 +924,25 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>834.4444444444443</v>
+        <v>837.5555555555557</v>
       </c>
       <c r="F8" t="n">
-        <v>993.1111111111112</v>
+        <v>953.1111111111112</v>
       </c>
       <c r="G8" t="n">
-        <v>834.0</v>
+        <v>837.5555555555557</v>
       </c>
       <c r="H8" t="n">
-        <v>1013.5555555555555</v>
+        <v>977.5555555555555</v>
       </c>
       <c r="I8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -953,22 +953,22 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="n">
-        <v>835.5555555555557</v>
+        <v>836.2222222222223</v>
       </c>
       <c r="F9" t="n">
-        <v>1652.888888888889</v>
+        <v>824.6666666666666</v>
       </c>
       <c r="G9" t="n">
-        <v>836.888888888889</v>
+        <v>838.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1677.7777777777776</v>
+        <v>847.7777777777778</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
@@ -982,25 +982,25 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>837.5555555555557</v>
+        <v>834.4444444444443</v>
       </c>
       <c r="F10" t="n">
-        <v>953.1111111111112</v>
+        <v>993.1111111111112</v>
       </c>
       <c r="G10" t="n">
-        <v>837.5555555555557</v>
+        <v>834.0</v>
       </c>
       <c r="H10" t="n">
-        <v>977.5555555555555</v>
+        <v>1013.5555555555555</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -1011,22 +1011,22 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>837.3333333333334</v>
+        <v>962.6666666666666</v>
       </c>
       <c r="F11" t="n">
-        <v>1612.0</v>
+        <v>1726.2222222222224</v>
       </c>
       <c r="G11" t="n">
-        <v>837.7777777777777</v>
+        <v>980.6666666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>1635.111111111111</v>
+        <v>1726.2222222222224</v>
       </c>
       <c r="I11" t="n">
         <v>1.0</v>
@@ -1040,25 +1040,25 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="n">
-        <v>836.6666666666666</v>
+        <v>534.6666666666666</v>
       </c>
       <c r="F12" t="n">
-        <v>906.8888888888888</v>
+        <v>1686.6666666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>836.6666666666666</v>
+        <v>535.1111111111112</v>
       </c>
       <c r="H12" t="n">
-        <v>938.4444444444445</v>
+        <v>1656.888888888889</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -1069,25 +1069,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13" t="n">
-        <v>837.3333333333334</v>
+        <v>914.6666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>1521.3333333333333</v>
+        <v>1724.888888888889</v>
       </c>
       <c r="G13" t="n">
-        <v>837.3333333333334</v>
+        <v>932.6666666666666</v>
       </c>
       <c r="H13" t="n">
-        <v>1553.3333333333333</v>
+        <v>1724.888888888889</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -1098,22 +1098,22 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>836.4444444444443</v>
+        <v>834.6666666666666</v>
       </c>
       <c r="F14" t="n">
-        <v>1566.6666666666667</v>
+        <v>1700.4444444444443</v>
       </c>
       <c r="G14" t="n">
-        <v>837.3333333333334</v>
+        <v>836.888888888889</v>
       </c>
       <c r="H14" t="n">
-        <v>1594.2222222222224</v>
+        <v>1721.3333333333333</v>
       </c>
       <c r="I14" t="n">
         <v>1.0</v>
@@ -1133,16 +1133,16 @@
         <v>30</v>
       </c>
       <c r="E15" t="n">
-        <v>813.111111111111</v>
+        <v>811.3333333333334</v>
       </c>
       <c r="F15" t="n">
-        <v>1236.6666666666667</v>
+        <v>805.5555555555555</v>
       </c>
       <c r="G15" t="n">
-        <v>831.111111111111</v>
+        <v>826.888888888889</v>
       </c>
       <c r="H15" t="n">
-        <v>1236.6666666666667</v>
+        <v>794.0</v>
       </c>
       <c r="I15" t="n">
         <v>1.0</v>
@@ -1156,22 +1156,22 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16" t="n">
-        <v>535.1111111111112</v>
+        <v>837.3333333333334</v>
       </c>
       <c r="F16" t="n">
-        <v>1641.3333333333333</v>
+        <v>1612.0</v>
       </c>
       <c r="G16" t="n">
-        <v>535.5555555555555</v>
+        <v>837.7777777777777</v>
       </c>
       <c r="H16" t="n">
-        <v>1615.111111111111</v>
+        <v>1635.111111111111</v>
       </c>
       <c r="I16" t="n">
         <v>1.0</v>
@@ -1185,25 +1185,25 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>
       </c>
       <c r="E17" t="n">
-        <v>534.2222222222222</v>
+        <v>837.3333333333334</v>
       </c>
       <c r="F17" t="n">
-        <v>1600.4444444444443</v>
+        <v>1521.3333333333333</v>
       </c>
       <c r="G17" t="n">
-        <v>537.3333333333334</v>
+        <v>837.3333333333334</v>
       </c>
       <c r="H17" t="n">
-        <v>1566.6666666666667</v>
+        <v>1553.3333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -1214,22 +1214,22 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="D18" t="s">
         <v>36</v>
       </c>
       <c r="E18" t="n">
-        <v>534.6666666666666</v>
+        <v>836.6666666666666</v>
       </c>
       <c r="F18" t="n">
-        <v>1686.6666666666667</v>
+        <v>775.3333333333334</v>
       </c>
       <c r="G18" t="n">
-        <v>535.1111111111112</v>
+        <v>836.2222222222223</v>
       </c>
       <c r="H18" t="n">
-        <v>1656.888888888889</v>
+        <v>794.4444444444445</v>
       </c>
       <c r="I18" t="n">
         <v>1.0</v>
@@ -1249,16 +1249,16 @@
         <v>38</v>
       </c>
       <c r="E19" t="n">
-        <v>836.2222222222223</v>
+        <v>820.4444444444443</v>
       </c>
       <c r="F19" t="n">
-        <v>824.6666666666666</v>
+        <v>1692.0</v>
       </c>
       <c r="G19" t="n">
-        <v>838.0</v>
+        <v>819.111111111111</v>
       </c>
       <c r="H19" t="n">
-        <v>847.7777777777778</v>
+        <v>1723.111111111111</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -1278,16 +1278,16 @@
         <v>40</v>
       </c>
       <c r="E20" t="n">
-        <v>838.0</v>
+        <v>810.4444444444443</v>
       </c>
       <c r="F20" t="n">
-        <v>862.4444444444445</v>
+        <v>1014.0</v>
       </c>
       <c r="G20" t="n">
-        <v>837.111111111111</v>
+        <v>828.4444444444443</v>
       </c>
       <c r="H20" t="n">
-        <v>894.0</v>
+        <v>1014.0</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
@@ -1307,16 +1307,16 @@
         <v>42</v>
       </c>
       <c r="E21" t="n">
-        <v>811.7777777777777</v>
+        <v>836.0</v>
       </c>
       <c r="F21" t="n">
-        <v>824.2222222222222</v>
+        <v>1736.888888888889</v>
       </c>
       <c r="G21" t="n">
-        <v>829.7777777777777</v>
+        <v>836.888888888889</v>
       </c>
       <c r="H21" t="n">
-        <v>824.2222222222222</v>
+        <v>1768.4444444444443</v>
       </c>
       <c r="I21" t="n">
         <v>1.0</v>
@@ -1336,16 +1336,16 @@
         <v>44</v>
       </c>
       <c r="E22" t="n">
-        <v>535.1111111111112</v>
+        <v>836.4444444444443</v>
       </c>
       <c r="F22" t="n">
-        <v>1552.0</v>
+        <v>1566.6666666666667</v>
       </c>
       <c r="G22" t="n">
-        <v>538.2222222222222</v>
+        <v>837.3333333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>1528.0</v>
+        <v>1594.2222222222224</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -1365,16 +1365,16 @@
         <v>46</v>
       </c>
       <c r="E23" t="n">
-        <v>914.6666666666666</v>
+        <v>535.1111111111112</v>
       </c>
       <c r="F23" t="n">
-        <v>1724.888888888889</v>
+        <v>1641.3333333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>932.6666666666666</v>
+        <v>535.5555555555555</v>
       </c>
       <c r="H23" t="n">
-        <v>1724.888888888889</v>
+        <v>1615.111111111111</v>
       </c>
       <c r="I23" t="n">
         <v>1.0</v>
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="D24" t="s">
         <v>48</v>
@@ -1417,22 +1417,22 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="D25" t="s">
         <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>811.7777777777777</v>
+        <v>837.111111111111</v>
       </c>
       <c r="F25" t="n">
-        <v>1263.3333333333333</v>
+        <v>729.3333333333334</v>
       </c>
       <c r="G25" t="n">
-        <v>829.7777777777777</v>
+        <v>837.5555555555557</v>
       </c>
       <c r="H25" t="n">
-        <v>1263.3333333333333</v>
+        <v>765.3333333333334</v>
       </c>
       <c r="I25" t="n">
         <v>1.0</v>
@@ -1452,16 +1452,16 @@
         <v>52</v>
       </c>
       <c r="E26" t="n">
-        <v>537.3333333333334</v>
+        <v>816.0</v>
       </c>
       <c r="F26" t="n">
-        <v>1509.7777777777776</v>
+        <v>1727.111111111111</v>
       </c>
       <c r="G26" t="n">
-        <v>538.2222222222222</v>
+        <v>819.5555555555557</v>
       </c>
       <c r="H26" t="n">
-        <v>1486.6666666666667</v>
+        <v>1752.888888888889</v>
       </c>
       <c r="I26" t="n">
         <v>1.0</v>
@@ -1481,16 +1481,16 @@
         <v>54</v>
       </c>
       <c r="E27" t="n">
-        <v>536.4444444444445</v>
+        <v>628.8888888888888</v>
       </c>
       <c r="F27" t="n">
-        <v>1465.7777777777776</v>
+        <v>1461.7777777777776</v>
       </c>
       <c r="G27" t="n">
-        <v>550.2222222222222</v>
+        <v>646.8888888888888</v>
       </c>
       <c r="H27" t="n">
-        <v>1463.5555555555557</v>
+        <v>1461.7777777777776</v>
       </c>
       <c r="I27" t="n">
         <v>1.0</v>
@@ -1510,16 +1510,16 @@
         <v>56</v>
       </c>
       <c r="E28" t="n">
-        <v>837.111111111111</v>
+        <v>811.3333333333334</v>
       </c>
       <c r="F28" t="n">
-        <v>729.3333333333334</v>
+        <v>1044.6666666666667</v>
       </c>
       <c r="G28" t="n">
-        <v>837.5555555555557</v>
+        <v>829.3333333333334</v>
       </c>
       <c r="H28" t="n">
-        <v>765.3333333333334</v>
+        <v>1044.6666666666667</v>
       </c>
       <c r="I28" t="n">
         <v>1.0</v>
@@ -1539,16 +1539,16 @@
         <v>58</v>
       </c>
       <c r="E29" t="n">
-        <v>836.6666666666666</v>
+        <v>534.2222222222222</v>
       </c>
       <c r="F29" t="n">
-        <v>775.3333333333334</v>
+        <v>1600.4444444444443</v>
       </c>
       <c r="G29" t="n">
-        <v>836.2222222222223</v>
+        <v>537.3333333333334</v>
       </c>
       <c r="H29" t="n">
-        <v>794.4444444444445</v>
+        <v>1566.6666666666667</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -1568,16 +1568,16 @@
         <v>60</v>
       </c>
       <c r="E30" t="n">
-        <v>811.3333333333334</v>
+        <v>836.6666666666666</v>
       </c>
       <c r="F30" t="n">
-        <v>805.5555555555555</v>
+        <v>679.5555555555555</v>
       </c>
       <c r="G30" t="n">
-        <v>826.888888888889</v>
+        <v>838.4444444444443</v>
       </c>
       <c r="H30" t="n">
-        <v>794.0</v>
+        <v>710.2222222222222</v>
       </c>
       <c r="I30" t="n">
         <v>1.0</v>
@@ -1591,22 +1591,22 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="D31" t="s">
         <v>62</v>
       </c>
       <c r="E31" t="n">
-        <v>835.7777777777777</v>
+        <v>820.888888888889</v>
       </c>
       <c r="F31" t="n">
-        <v>1263.7777777777778</v>
+        <v>1724.4444444444443</v>
       </c>
       <c r="G31" t="n">
-        <v>838.4444444444443</v>
+        <v>838.888888888889</v>
       </c>
       <c r="H31" t="n">
-        <v>1286.4444444444446</v>
+        <v>1724.4444444444443</v>
       </c>
       <c r="I31" t="n">
         <v>1.0</v>
@@ -1626,16 +1626,16 @@
         <v>64</v>
       </c>
       <c r="E32" t="n">
-        <v>1103.5555555555557</v>
+        <v>535.1111111111112</v>
       </c>
       <c r="F32" t="n">
-        <v>1724.888888888889</v>
+        <v>1552.0</v>
       </c>
       <c r="G32" t="n">
-        <v>1121.5555555555557</v>
+        <v>538.2222222222222</v>
       </c>
       <c r="H32" t="n">
-        <v>1724.888888888889</v>
+        <v>1528.0</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
@@ -1655,16 +1655,16 @@
         <v>66</v>
       </c>
       <c r="E33" t="n">
-        <v>836.6666666666666</v>
+        <v>835.7777777777777</v>
       </c>
       <c r="F33" t="n">
-        <v>679.5555555555555</v>
+        <v>1043.7777777777776</v>
       </c>
       <c r="G33" t="n">
         <v>838.4444444444443</v>
       </c>
       <c r="H33" t="n">
-        <v>710.2222222222222</v>
+        <v>1067.3333333333333</v>
       </c>
       <c r="I33" t="n">
         <v>1.0</v>
@@ -1684,16 +1684,16 @@
         <v>68</v>
       </c>
       <c r="E34" t="n">
-        <v>837.5555555555557</v>
+        <v>584.0</v>
       </c>
       <c r="F34" t="n">
-        <v>1302.888888888889</v>
+        <v>1461.7777777777776</v>
       </c>
       <c r="G34" t="n">
-        <v>838.0</v>
+        <v>602.0</v>
       </c>
       <c r="H34" t="n">
-        <v>1333.5555555555554</v>
+        <v>1461.7777777777776</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
@@ -1742,16 +1742,16 @@
         <v>72</v>
       </c>
       <c r="E36" t="n">
+        <v>816.888888888889</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1756.4444444444443</v>
+      </c>
+      <c r="G36" t="n">
         <v>816.0</v>
       </c>
-      <c r="F36" t="n">
-        <v>1727.111111111111</v>
-      </c>
-      <c r="G36" t="n">
-        <v>819.5555555555557</v>
-      </c>
       <c r="H36" t="n">
-        <v>1752.888888888889</v>
+        <v>1782.6666666666667</v>
       </c>
       <c r="I36" t="n">
         <v>1.0</v>
@@ -1771,16 +1771,16 @@
         <v>74</v>
       </c>
       <c r="E37" t="n">
-        <v>820.888888888889</v>
+        <v>676.8888888888888</v>
       </c>
       <c r="F37" t="n">
-        <v>1724.4444444444443</v>
+        <v>1464.4444444444443</v>
       </c>
       <c r="G37" t="n">
-        <v>838.888888888889</v>
+        <v>694.8888888888888</v>
       </c>
       <c r="H37" t="n">
-        <v>1724.4444444444443</v>
+        <v>1464.4444444444443</v>
       </c>
       <c r="I37" t="n">
         <v>1.0</v>
@@ -1794,22 +1794,22 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="D38" t="s">
         <v>76</v>
       </c>
       <c r="E38" t="n">
-        <v>584.0</v>
+        <v>536.4444444444445</v>
       </c>
       <c r="F38" t="n">
-        <v>1461.7777777777776</v>
+        <v>1465.7777777777776</v>
       </c>
       <c r="G38" t="n">
-        <v>602.0</v>
+        <v>550.2222222222222</v>
       </c>
       <c r="H38" t="n">
-        <v>1461.7777777777776</v>
+        <v>1463.5555555555557</v>
       </c>
       <c r="I38" t="n">
         <v>1.0</v>
@@ -1823,22 +1823,22 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="D39" t="s">
         <v>78</v>
       </c>
       <c r="E39" t="n">
-        <v>820.4444444444443</v>
+        <v>1127.111111111111</v>
       </c>
       <c r="F39" t="n">
-        <v>1692.0</v>
+        <v>1743.111111111111</v>
       </c>
       <c r="G39" t="n">
-        <v>819.111111111111</v>
+        <v>1142.6666666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>1723.111111111111</v>
+        <v>1725.7777777777776</v>
       </c>
       <c r="I39" t="n">
         <v>1.0</v>
@@ -1858,16 +1858,16 @@
         <v>80</v>
       </c>
       <c r="E40" t="n">
-        <v>1008.888888888889</v>
+        <v>837.5555555555557</v>
       </c>
       <c r="F40" t="n">
-        <v>1725.7777777777776</v>
+        <v>1083.111111111111</v>
       </c>
       <c r="G40" t="n">
-        <v>1026.8888888888891</v>
+        <v>837.111111111111</v>
       </c>
       <c r="H40" t="n">
-        <v>1725.7777777777776</v>
+        <v>1108.4444444444446</v>
       </c>
       <c r="I40" t="n">
         <v>1.0</v>
@@ -1887,16 +1887,16 @@
         <v>82</v>
       </c>
       <c r="E41" t="n">
-        <v>1058.6666666666667</v>
+        <v>867.111111111111</v>
       </c>
       <c r="F41" t="n">
-        <v>1723.5555555555557</v>
+        <v>1724.888888888889</v>
       </c>
       <c r="G41" t="n">
-        <v>1076.6666666666667</v>
+        <v>885.111111111111</v>
       </c>
       <c r="H41" t="n">
-        <v>1723.5555555555557</v>
+        <v>1724.888888888889</v>
       </c>
       <c r="I41" t="n">
         <v>1.0</v>
@@ -1916,16 +1916,16 @@
         <v>84</v>
       </c>
       <c r="E42" t="n">
-        <v>820.4444444444443</v>
+        <v>727.111111111111</v>
       </c>
       <c r="F42" t="n">
-        <v>1779.5555555555557</v>
+        <v>1462.6666666666667</v>
       </c>
       <c r="G42" t="n">
-        <v>838.4444444444443</v>
+        <v>745.111111111111</v>
       </c>
       <c r="H42" t="n">
-        <v>1779.5555555555557</v>
+        <v>1462.6666666666667</v>
       </c>
       <c r="I42" t="n">
         <v>1.0</v>
@@ -1945,16 +1945,16 @@
         <v>86</v>
       </c>
       <c r="E43" t="n">
-        <v>628.8888888888888</v>
+        <v>836.4444444444443</v>
       </c>
       <c r="F43" t="n">
-        <v>1461.7777777777776</v>
+        <v>1726.2222222222224</v>
       </c>
       <c r="G43" t="n">
-        <v>646.8888888888888</v>
+        <v>854.4444444444443</v>
       </c>
       <c r="H43" t="n">
-        <v>1461.7777777777776</v>
+        <v>1726.2222222222224</v>
       </c>
       <c r="I43" t="n">
         <v>1.0</v>
@@ -1974,16 +1974,16 @@
         <v>88</v>
       </c>
       <c r="E44" t="n">
-        <v>762.0</v>
+        <v>537.3333333333334</v>
       </c>
       <c r="F44" t="n">
-        <v>627.1111111111112</v>
+        <v>1509.7777777777776</v>
       </c>
       <c r="G44" t="n">
-        <v>836.6666666666666</v>
+        <v>538.2222222222222</v>
       </c>
       <c r="H44" t="n">
-        <v>623.5555555555555</v>
+        <v>1486.6666666666667</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
@@ -2003,16 +2003,16 @@
         <v>90</v>
       </c>
       <c r="E45" t="n">
-        <v>867.111111111111</v>
+        <v>820.4444444444443</v>
       </c>
       <c r="F45" t="n">
-        <v>1724.888888888889</v>
+        <v>1779.5555555555557</v>
       </c>
       <c r="G45" t="n">
-        <v>885.111111111111</v>
+        <v>838.4444444444443</v>
       </c>
       <c r="H45" t="n">
-        <v>1724.888888888889</v>
+        <v>1779.5555555555557</v>
       </c>
       <c r="I45" t="n">
         <v>1.0</v>
@@ -2032,16 +2032,16 @@
         <v>92</v>
       </c>
       <c r="E46" t="n">
-        <v>816.888888888889</v>
+        <v>1093.7777777777776</v>
       </c>
       <c r="F46" t="n">
-        <v>1756.4444444444443</v>
+        <v>1745.3333333333333</v>
       </c>
       <c r="G46" t="n">
-        <v>816.0</v>
+        <v>1092.0</v>
       </c>
       <c r="H46" t="n">
-        <v>1782.6666666666667</v>
+        <v>1726.2222222222224</v>
       </c>
       <c r="I46" t="n">
         <v>1.0</v>
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D47" t="s">
         <v>94</v>
@@ -2064,13 +2064,13 @@
         <v>835.7777777777777</v>
       </c>
       <c r="F47" t="n">
-        <v>639.5555555555555</v>
+        <v>1169.7777777777778</v>
       </c>
       <c r="G47" t="n">
-        <v>837.111111111111</v>
+        <v>837.5555555555557</v>
       </c>
       <c r="H47" t="n">
-        <v>671.5555555555555</v>
+        <v>1198.2222222222224</v>
       </c>
       <c r="I47" t="n">
         <v>1.0</v>
@@ -2084,22 +2084,22 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D48" t="s">
         <v>96</v>
       </c>
       <c r="E48" t="n">
-        <v>962.6666666666666</v>
+        <v>775.5555555555557</v>
       </c>
       <c r="F48" t="n">
-        <v>1726.2222222222224</v>
+        <v>1462.6666666666667</v>
       </c>
       <c r="G48" t="n">
-        <v>980.6666666666666</v>
+        <v>793.5555555555557</v>
       </c>
       <c r="H48" t="n">
-        <v>1726.2222222222224</v>
+        <v>1462.6666666666667</v>
       </c>
       <c r="I48" t="n">
         <v>1.0</v>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="D49" t="s">
         <v>98</v>
@@ -2122,13 +2122,13 @@
         <v>836.2222222222223</v>
       </c>
       <c r="F49" t="n">
-        <v>1351.3333333333333</v>
+        <v>1126.6666666666667</v>
       </c>
       <c r="G49" t="n">
-        <v>837.111111111111</v>
+        <v>838.4444444444443</v>
       </c>
       <c r="H49" t="n">
-        <v>1366.0</v>
+        <v>1154.6666666666667</v>
       </c>
       <c r="I49" t="n">
         <v>1.0</v>
@@ -2148,16 +2148,16 @@
         <v>100</v>
       </c>
       <c r="E50" t="n">
-        <v>1127.111111111111</v>
+        <v>762.0</v>
       </c>
       <c r="F50" t="n">
-        <v>1743.111111111111</v>
+        <v>627.1111111111112</v>
       </c>
       <c r="G50" t="n">
-        <v>1142.6666666666667</v>
+        <v>836.6666666666666</v>
       </c>
       <c r="H50" t="n">
-        <v>1725.7777777777776</v>
+        <v>623.5555555555555</v>
       </c>
       <c r="I50" t="n">
         <v>1.0</v>
@@ -2177,16 +2177,16 @@
         <v>102</v>
       </c>
       <c r="E51" t="n">
-        <v>1093.7777777777776</v>
+        <v>835.7777777777777</v>
       </c>
       <c r="F51" t="n">
-        <v>1745.3333333333333</v>
+        <v>639.5555555555555</v>
       </c>
       <c r="G51" t="n">
-        <v>1092.0</v>
+        <v>837.111111111111</v>
       </c>
       <c r="H51" t="n">
-        <v>1726.2222222222224</v>
+        <v>671.5555555555555</v>
       </c>
       <c r="I51" t="n">
         <v>1.0</v>
@@ -2200,22 +2200,22 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="D52" t="s">
         <v>104</v>
       </c>
       <c r="E52" t="n">
-        <v>676.8888888888888</v>
+        <v>1006.2222222222223</v>
       </c>
       <c r="F52" t="n">
-        <v>1464.4444444444443</v>
+        <v>1744.888888888889</v>
       </c>
       <c r="G52" t="n">
-        <v>694.8888888888888</v>
+        <v>1003.111111111111</v>
       </c>
       <c r="H52" t="n">
-        <v>1464.4444444444443</v>
+        <v>1728.0</v>
       </c>
       <c r="I52" t="n">
         <v>1.0</v>
@@ -2229,22 +2229,22 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="D53" t="s">
         <v>106</v>
       </c>
       <c r="E53" t="n">
-        <v>1014.2222222222223</v>
+        <v>837.111111111111</v>
       </c>
       <c r="F53" t="n">
-        <v>1742.6666666666667</v>
+        <v>1217.111111111111</v>
       </c>
       <c r="G53" t="n">
-        <v>1032.2222222222222</v>
+        <v>834.4444444444443</v>
       </c>
       <c r="H53" t="n">
-        <v>1742.6666666666667</v>
+        <v>1234.888888888889</v>
       </c>
       <c r="I53" t="n">
         <v>1.0</v>
@@ -2258,22 +2258,22 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="D54" t="s">
         <v>108</v>
       </c>
       <c r="E54" t="n">
-        <v>810.888888888889</v>
+        <v>981.7777777777777</v>
       </c>
       <c r="F54" t="n">
-        <v>1368.6666666666667</v>
+        <v>1742.6666666666667</v>
       </c>
       <c r="G54" t="n">
-        <v>828.888888888889</v>
+        <v>999.7777777777777</v>
       </c>
       <c r="H54" t="n">
-        <v>1368.6666666666667</v>
+        <v>1742.6666666666667</v>
       </c>
       <c r="I54" t="n">
         <v>1.0</v>
@@ -2287,22 +2287,22 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="D55" t="s">
         <v>110</v>
       </c>
       <c r="E55" t="n">
-        <v>836.2222222222223</v>
+        <v>1041.3333333333333</v>
       </c>
       <c r="F55" t="n">
-        <v>558.6666666666666</v>
+        <v>1741.3333333333333</v>
       </c>
       <c r="G55" t="n">
-        <v>812.6666666666666</v>
+        <v>1048.0</v>
       </c>
       <c r="H55" t="n">
-        <v>579.1111111111112</v>
+        <v>1728.0</v>
       </c>
       <c r="I55" t="n">
         <v>1.0</v>
@@ -2316,22 +2316,22 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="D56" t="s">
         <v>112</v>
       </c>
       <c r="E56" t="n">
-        <v>1124.0</v>
+        <v>1014.2222222222223</v>
       </c>
       <c r="F56" t="n">
-        <v>1703.111111111111</v>
+        <v>1742.6666666666667</v>
       </c>
       <c r="G56" t="n">
-        <v>1136.0</v>
+        <v>1032.2222222222222</v>
       </c>
       <c r="H56" t="n">
-        <v>1727.111111111111</v>
+        <v>1742.6666666666667</v>
       </c>
       <c r="I56" t="n">
         <v>1.0</v>
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="D57" t="s">
         <v>114</v>
@@ -2374,22 +2374,22 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="D58" t="s">
         <v>116</v>
       </c>
       <c r="E58" t="n">
-        <v>836.4444444444443</v>
+        <v>836.2222222222223</v>
       </c>
       <c r="F58" t="n">
-        <v>1726.2222222222224</v>
+        <v>558.6666666666666</v>
       </c>
       <c r="G58" t="n">
-        <v>854.4444444444443</v>
+        <v>812.6666666666666</v>
       </c>
       <c r="H58" t="n">
-        <v>1726.2222222222224</v>
+        <v>579.1111111111112</v>
       </c>
       <c r="I58" t="n">
         <v>1.0</v>
@@ -2409,16 +2409,16 @@
         <v>118</v>
       </c>
       <c r="E59" t="n">
-        <v>907.5555555555557</v>
+        <v>1124.0</v>
       </c>
       <c r="F59" t="n">
-        <v>1700.0</v>
+        <v>1703.111111111111</v>
       </c>
       <c r="G59" t="n">
-        <v>931.111111111111</v>
+        <v>1136.0</v>
       </c>
       <c r="H59" t="n">
-        <v>1700.888888888889</v>
+        <v>1727.111111111111</v>
       </c>
       <c r="I59" t="n">
         <v>1.0</v>
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D61" t="s">
         <v>122</v>
@@ -2490,22 +2490,22 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D62" t="s">
         <v>124</v>
       </c>
       <c r="E62" t="n">
-        <v>812.2222222222223</v>
+        <v>972.4444444444443</v>
       </c>
       <c r="F62" t="n">
-        <v>1396.2222222222224</v>
+        <v>1739.5555555555557</v>
       </c>
       <c r="G62" t="n">
-        <v>830.2222222222223</v>
+        <v>984.888888888889</v>
       </c>
       <c r="H62" t="n">
-        <v>1396.2222222222224</v>
+        <v>1724.4444444444443</v>
       </c>
       <c r="I62" t="n">
         <v>1.0</v>
@@ -2519,22 +2519,22 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D63" t="s">
         <v>126</v>
       </c>
       <c r="E63" t="n">
-        <v>1006.2222222222223</v>
+        <v>907.5555555555557</v>
       </c>
       <c r="F63" t="n">
-        <v>1744.888888888889</v>
+        <v>1700.0</v>
       </c>
       <c r="G63" t="n">
-        <v>1003.111111111111</v>
+        <v>931.111111111111</v>
       </c>
       <c r="H63" t="n">
-        <v>1728.0</v>
+        <v>1700.888888888889</v>
       </c>
       <c r="I63" t="n">
         <v>1.0</v>
@@ -2548,22 +2548,22 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D64" t="s">
         <v>128</v>
       </c>
       <c r="E64" t="n">
-        <v>727.111111111111</v>
+        <v>813.111111111111</v>
       </c>
       <c r="F64" t="n">
-        <v>1462.6666666666667</v>
+        <v>1236.6666666666667</v>
       </c>
       <c r="G64" t="n">
-        <v>745.111111111111</v>
+        <v>831.111111111111</v>
       </c>
       <c r="H64" t="n">
-        <v>1462.6666666666667</v>
+        <v>1236.6666666666667</v>
       </c>
       <c r="I64" t="n">
         <v>1.0</v>
@@ -2577,22 +2577,22 @@
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="D65" t="s">
         <v>130</v>
       </c>
       <c r="E65" t="n">
-        <v>1041.3333333333333</v>
+        <v>939.5555555555557</v>
       </c>
       <c r="F65" t="n">
-        <v>1741.3333333333333</v>
+        <v>1738.6666666666667</v>
       </c>
       <c r="G65" t="n">
-        <v>1048.0</v>
+        <v>954.6666666666666</v>
       </c>
       <c r="H65" t="n">
-        <v>1728.0</v>
+        <v>1725.7777777777776</v>
       </c>
       <c r="I65" t="n">
         <v>1.0</v>
@@ -2606,22 +2606,22 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="D66" t="s">
         <v>132</v>
       </c>
       <c r="E66" t="n">
-        <v>981.7777777777777</v>
+        <v>811.3333333333334</v>
       </c>
       <c r="F66" t="n">
-        <v>1742.6666666666667</v>
+        <v>57.55555555555558</v>
       </c>
       <c r="G66" t="n">
-        <v>999.7777777777777</v>
+        <v>829.3333333333334</v>
       </c>
       <c r="H66" t="n">
-        <v>1742.6666666666667</v>
+        <v>57.55555555555558</v>
       </c>
       <c r="I66" t="n">
         <v>1.0</v>
@@ -2635,22 +2635,22 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="D67" t="s">
         <v>134</v>
       </c>
       <c r="E67" t="n">
-        <v>972.4444444444443</v>
+        <v>835.7777777777777</v>
       </c>
       <c r="F67" t="n">
-        <v>1739.5555555555557</v>
+        <v>512.6666666666666</v>
       </c>
       <c r="G67" t="n">
-        <v>984.888888888889</v>
+        <v>837.5555555555557</v>
       </c>
       <c r="H67" t="n">
-        <v>1724.4444444444443</v>
+        <v>538.0</v>
       </c>
       <c r="I67" t="n">
         <v>1.0</v>
@@ -2664,22 +2664,22 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="D68" t="s">
         <v>136</v>
       </c>
       <c r="E68" t="n">
-        <v>939.5555555555557</v>
+        <v>834.888888888889</v>
       </c>
       <c r="F68" t="n">
-        <v>1738.6666666666667</v>
+        <v>385.1111111111111</v>
       </c>
       <c r="G68" t="n">
-        <v>954.6666666666666</v>
+        <v>836.6666666666666</v>
       </c>
       <c r="H68" t="n">
-        <v>1725.7777777777776</v>
+        <v>417.5555555555556</v>
       </c>
       <c r="I68" t="n">
         <v>1.0</v>
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="D69" t="s">
         <v>138</v>
@@ -2702,13 +2702,13 @@
         <v>811.7777777777777</v>
       </c>
       <c r="F69" t="n">
-        <v>354.0</v>
+        <v>1263.3333333333333</v>
       </c>
       <c r="G69" t="n">
         <v>829.7777777777777</v>
       </c>
       <c r="H69" t="n">
-        <v>354.0</v>
+        <v>1263.3333333333333</v>
       </c>
       <c r="I69" t="n">
         <v>1.0</v>
@@ -2722,22 +2722,22 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="D70" t="s">
         <v>140</v>
       </c>
       <c r="E70" t="n">
-        <v>834.888888888889</v>
+        <v>836.2222222222223</v>
       </c>
       <c r="F70" t="n">
-        <v>119.77777777777776</v>
+        <v>426.8888888888889</v>
       </c>
       <c r="G70" t="n">
-        <v>834.4444444444443</v>
+        <v>837.5555555555557</v>
       </c>
       <c r="H70" t="n">
-        <v>133.55555555555557</v>
+        <v>451.77777777777777</v>
       </c>
       <c r="I70" t="n">
         <v>1.0</v>
@@ -2751,22 +2751,22 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="D71" t="s">
         <v>142</v>
       </c>
       <c r="E71" t="n">
-        <v>834.4444444444443</v>
+        <v>812.2222222222223</v>
       </c>
       <c r="F71" t="n">
-        <v>297.11111111111114</v>
+        <v>384.6666666666667</v>
       </c>
       <c r="G71" t="n">
-        <v>837.111111111111</v>
+        <v>830.2222222222223</v>
       </c>
       <c r="H71" t="n">
-        <v>327.3333333333333</v>
+        <v>384.6666666666667</v>
       </c>
       <c r="I71" t="n">
         <v>1.0</v>
@@ -2780,22 +2780,22 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="D72" t="s">
         <v>144</v>
       </c>
       <c r="E72" t="n">
-        <v>811.7777777777777</v>
+        <v>836.6666666666666</v>
       </c>
       <c r="F72" t="n">
-        <v>133.1111111111111</v>
+        <v>465.5555555555556</v>
       </c>
       <c r="G72" t="n">
-        <v>829.7777777777777</v>
+        <v>837.5555555555557</v>
       </c>
       <c r="H72" t="n">
-        <v>133.1111111111111</v>
+        <v>494.0</v>
       </c>
       <c r="I72" t="n">
         <v>1.0</v>
@@ -2809,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="D73" t="s">
         <v>146</v>
@@ -2818,13 +2818,13 @@
         <v>835.7777777777777</v>
       </c>
       <c r="F73" t="n">
-        <v>166.44444444444443</v>
+        <v>1263.7777777777778</v>
       </c>
       <c r="G73" t="n">
-        <v>837.5555555555557</v>
+        <v>838.4444444444443</v>
       </c>
       <c r="H73" t="n">
-        <v>190.88888888888889</v>
+        <v>1286.4444444444446</v>
       </c>
       <c r="I73" t="n">
         <v>1.0</v>
@@ -2838,22 +2838,22 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="D74" t="s">
         <v>148</v>
       </c>
       <c r="E74" t="n">
-        <v>834.888888888889</v>
+        <v>937.7777777777777</v>
       </c>
       <c r="F74" t="n">
-        <v>385.1111111111111</v>
+        <v>1706.2222222222224</v>
       </c>
       <c r="G74" t="n">
-        <v>836.6666666666666</v>
+        <v>945.3333333333334</v>
       </c>
       <c r="H74" t="n">
-        <v>417.5555555555556</v>
+        <v>1727.5555555555557</v>
       </c>
       <c r="I74" t="n">
         <v>1.0</v>
@@ -2867,22 +2867,22 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="D75" t="s">
         <v>150</v>
       </c>
       <c r="E75" t="n">
-        <v>813.111111111111</v>
+        <v>811.7777777777777</v>
       </c>
       <c r="F75" t="n">
-        <v>164.66666666666666</v>
+        <v>354.0</v>
       </c>
       <c r="G75" t="n">
-        <v>831.111111111111</v>
+        <v>829.7777777777777</v>
       </c>
       <c r="H75" t="n">
-        <v>164.66666666666666</v>
+        <v>354.0</v>
       </c>
       <c r="I75" t="n">
         <v>1.0</v>
@@ -2896,22 +2896,22 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="D76" t="s">
         <v>152</v>
       </c>
       <c r="E76" t="n">
-        <v>835.7777777777777</v>
+        <v>837.5555555555557</v>
       </c>
       <c r="F76" t="n">
-        <v>338.44444444444446</v>
+        <v>1302.888888888889</v>
       </c>
       <c r="G76" t="n">
-        <v>833.111111111111</v>
+        <v>838.0</v>
       </c>
       <c r="H76" t="n">
-        <v>354.0</v>
+        <v>1333.5555555555554</v>
       </c>
       <c r="I76" t="n">
         <v>1.0</v>
@@ -2925,22 +2925,22 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="D77" t="s">
         <v>154</v>
       </c>
       <c r="E77" t="n">
-        <v>812.2222222222223</v>
+        <v>1014.6666666666666</v>
       </c>
       <c r="F77" t="n">
-        <v>384.6666666666667</v>
+        <v>1704.888888888889</v>
       </c>
       <c r="G77" t="n">
-        <v>830.2222222222223</v>
+        <v>1000.4444444444443</v>
       </c>
       <c r="H77" t="n">
-        <v>384.6666666666667</v>
+        <v>1726.2222222222224</v>
       </c>
       <c r="I77" t="n">
         <v>1.0</v>
@@ -2954,22 +2954,22 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="D78" t="s">
         <v>156</v>
       </c>
       <c r="E78" t="n">
-        <v>835.7777777777777</v>
+        <v>899.5555555555557</v>
       </c>
       <c r="F78" t="n">
-        <v>252.2222222222222</v>
+        <v>1708.4444444444443</v>
       </c>
       <c r="G78" t="n">
-        <v>837.111111111111</v>
+        <v>902.2222222222223</v>
       </c>
       <c r="H78" t="n">
-        <v>284.6666666666667</v>
+        <v>1725.7777777777776</v>
       </c>
       <c r="I78" t="n">
         <v>1.0</v>
@@ -2983,22 +2983,22 @@
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
       </c>
       <c r="E79" t="n">
-        <v>836.2222222222223</v>
+        <v>1008.0</v>
       </c>
       <c r="F79" t="n">
-        <v>206.88888888888889</v>
+        <v>1546.2222222222224</v>
       </c>
       <c r="G79" t="n">
-        <v>838.0</v>
+        <v>1026.0</v>
       </c>
       <c r="H79" t="n">
-        <v>239.7777777777778</v>
+        <v>1546.2222222222224</v>
       </c>
       <c r="I79" t="n">
         <v>1.0</v>
@@ -3012,22 +3012,22 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="D80" t="s">
         <v>160</v>
       </c>
       <c r="E80" t="n">
-        <v>811.3333333333334</v>
+        <v>978.6666666666666</v>
       </c>
       <c r="F80" t="n">
-        <v>57.55555555555558</v>
+        <v>1704.888888888889</v>
       </c>
       <c r="G80" t="n">
-        <v>829.3333333333334</v>
+        <v>993.7777777777777</v>
       </c>
       <c r="H80" t="n">
-        <v>57.55555555555558</v>
+        <v>1727.111111111111</v>
       </c>
       <c r="I80" t="n">
         <v>1.0</v>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="D81" t="s">
         <v>162</v>
@@ -3050,13 +3050,13 @@
         <v>836.2222222222223</v>
       </c>
       <c r="F81" t="n">
-        <v>426.8888888888889</v>
+        <v>1351.3333333333333</v>
       </c>
       <c r="G81" t="n">
-        <v>837.5555555555557</v>
+        <v>837.111111111111</v>
       </c>
       <c r="H81" t="n">
-        <v>451.77777777777777</v>
+        <v>1366.0</v>
       </c>
       <c r="I81" t="n">
         <v>1.0</v>
@@ -3070,22 +3070,22 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="D82" t="s">
         <v>164</v>
       </c>
       <c r="E82" t="n">
-        <v>837.111111111111</v>
+        <v>915.111111111111</v>
       </c>
       <c r="F82" t="n">
-        <v>1217.111111111111</v>
+        <v>1546.2222222222224</v>
       </c>
       <c r="G82" t="n">
-        <v>834.4444444444443</v>
+        <v>933.111111111111</v>
       </c>
       <c r="H82" t="n">
-        <v>1234.888888888889</v>
+        <v>1546.2222222222224</v>
       </c>
       <c r="I82" t="n">
         <v>1.0</v>
@@ -3099,22 +3099,22 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="D83" t="s">
         <v>166</v>
       </c>
       <c r="E83" t="n">
-        <v>836.2222222222223</v>
+        <v>868.0</v>
       </c>
       <c r="F83" t="n">
-        <v>1395.3333333333333</v>
+        <v>1546.2222222222224</v>
       </c>
       <c r="G83" t="n">
-        <v>837.5555555555557</v>
+        <v>886.0</v>
       </c>
       <c r="H83" t="n">
-        <v>1427.7777777777776</v>
+        <v>1546.2222222222224</v>
       </c>
       <c r="I83" t="n">
         <v>1.0</v>
@@ -3128,22 +3128,22 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="D84" t="s">
         <v>168</v>
       </c>
       <c r="E84" t="n">
-        <v>835.7777777777777</v>
+        <v>964.0</v>
       </c>
       <c r="F84" t="n">
-        <v>1169.7777777777778</v>
+        <v>1544.888888888889</v>
       </c>
       <c r="G84" t="n">
-        <v>837.5555555555557</v>
+        <v>982.0</v>
       </c>
       <c r="H84" t="n">
-        <v>1198.2222222222224</v>
+        <v>1544.888888888889</v>
       </c>
       <c r="I84" t="n">
         <v>1.0</v>
@@ -3157,22 +3157,22 @@
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="D85" t="s">
         <v>170</v>
       </c>
       <c r="E85" t="n">
-        <v>835.7777777777777</v>
+        <v>834.6666666666666</v>
       </c>
       <c r="F85" t="n">
-        <v>512.6666666666666</v>
+        <v>1546.2222222222224</v>
       </c>
       <c r="G85" t="n">
-        <v>837.5555555555557</v>
+        <v>852.6666666666666</v>
       </c>
       <c r="H85" t="n">
-        <v>538.0</v>
+        <v>1546.2222222222224</v>
       </c>
       <c r="I85" t="n">
         <v>1.0</v>
@@ -3186,22 +3186,22 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="D86" t="s">
         <v>172</v>
       </c>
       <c r="E86" t="n">
-        <v>836.6666666666666</v>
+        <v>810.888888888889</v>
       </c>
       <c r="F86" t="n">
-        <v>465.5555555555556</v>
+        <v>1368.6666666666667</v>
       </c>
       <c r="G86" t="n">
-        <v>837.5555555555557</v>
+        <v>828.888888888889</v>
       </c>
       <c r="H86" t="n">
-        <v>494.0</v>
+        <v>1368.6666666666667</v>
       </c>
       <c r="I86" t="n">
         <v>1.0</v>
@@ -3215,22 +3215,22 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="D87" t="s">
         <v>174</v>
       </c>
       <c r="E87" t="n">
-        <v>899.5555555555557</v>
+        <v>835.7777777777777</v>
       </c>
       <c r="F87" t="n">
-        <v>1708.4444444444443</v>
+        <v>338.44444444444446</v>
       </c>
       <c r="G87" t="n">
-        <v>902.2222222222223</v>
+        <v>833.111111111111</v>
       </c>
       <c r="H87" t="n">
-        <v>1725.7777777777776</v>
+        <v>354.0</v>
       </c>
       <c r="I87" t="n">
         <v>1.0</v>
@@ -3244,22 +3244,22 @@
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="D88" t="s">
         <v>176</v>
       </c>
       <c r="E88" t="n">
-        <v>775.5555555555557</v>
+        <v>1015.111111111111</v>
       </c>
       <c r="F88" t="n">
-        <v>1462.6666666666667</v>
+        <v>1565.3333333333333</v>
       </c>
       <c r="G88" t="n">
-        <v>793.5555555555557</v>
+        <v>1033.1111111111109</v>
       </c>
       <c r="H88" t="n">
-        <v>1462.6666666666667</v>
+        <v>1565.3333333333333</v>
       </c>
       <c r="I88" t="n">
         <v>1.0</v>
@@ -3273,22 +3273,22 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="D89" t="s">
         <v>178</v>
       </c>
       <c r="E89" t="n">
-        <v>1008.0</v>
+        <v>984.4444444444443</v>
       </c>
       <c r="F89" t="n">
-        <v>1546.2222222222224</v>
+        <v>1564.0</v>
       </c>
       <c r="G89" t="n">
-        <v>1026.0</v>
+        <v>1002.4444444444443</v>
       </c>
       <c r="H89" t="n">
-        <v>1546.2222222222224</v>
+        <v>1564.0</v>
       </c>
       <c r="I89" t="n">
         <v>1.0</v>
@@ -3302,22 +3302,22 @@
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="D90" t="s">
         <v>180</v>
       </c>
       <c r="E90" t="n">
-        <v>978.6666666666666</v>
+        <v>1040.888888888889</v>
       </c>
       <c r="F90" t="n">
-        <v>1704.888888888889</v>
+        <v>1560.4444444444443</v>
       </c>
       <c r="G90" t="n">
-        <v>993.7777777777777</v>
+        <v>1048.888888888889</v>
       </c>
       <c r="H90" t="n">
-        <v>1727.111111111111</v>
+        <v>1548.888888888889</v>
       </c>
       <c r="I90" t="n">
         <v>1.0</v>
@@ -3331,22 +3331,22 @@
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="D91" t="s">
         <v>182</v>
       </c>
       <c r="E91" t="n">
-        <v>868.0</v>
+        <v>1008.0</v>
       </c>
       <c r="F91" t="n">
-        <v>1546.2222222222224</v>
+        <v>1560.0</v>
       </c>
       <c r="G91" t="n">
-        <v>886.0</v>
+        <v>995.111111111111</v>
       </c>
       <c r="H91" t="n">
-        <v>1546.2222222222224</v>
+        <v>1548.4444444444443</v>
       </c>
       <c r="I91" t="n">
         <v>1.0</v>
@@ -3360,22 +3360,22 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="D92" t="s">
         <v>184</v>
       </c>
       <c r="E92" t="n">
-        <v>915.111111111111</v>
+        <v>834.4444444444443</v>
       </c>
       <c r="F92" t="n">
-        <v>1546.2222222222224</v>
+        <v>297.11111111111114</v>
       </c>
       <c r="G92" t="n">
-        <v>933.111111111111</v>
+        <v>837.111111111111</v>
       </c>
       <c r="H92" t="n">
-        <v>1546.2222222222224</v>
+        <v>327.3333333333333</v>
       </c>
       <c r="I92" t="n">
         <v>1.0</v>
@@ -3389,22 +3389,22 @@
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="D93" t="s">
         <v>186</v>
       </c>
       <c r="E93" t="n">
-        <v>1014.6666666666666</v>
+        <v>952.888888888889</v>
       </c>
       <c r="F93" t="n">
-        <v>1704.888888888889</v>
+        <v>1567.111111111111</v>
       </c>
       <c r="G93" t="n">
-        <v>1000.4444444444443</v>
+        <v>970.888888888889</v>
       </c>
       <c r="H93" t="n">
-        <v>1726.2222222222224</v>
+        <v>1567.111111111111</v>
       </c>
       <c r="I93" t="n">
         <v>1.0</v>
@@ -3418,22 +3418,22 @@
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="D94" t="s">
         <v>188</v>
       </c>
       <c r="E94" t="n">
-        <v>964.0</v>
+        <v>812.2222222222223</v>
       </c>
       <c r="F94" t="n">
-        <v>1544.888888888889</v>
+        <v>1396.2222222222224</v>
       </c>
       <c r="G94" t="n">
-        <v>982.0</v>
+        <v>830.2222222222223</v>
       </c>
       <c r="H94" t="n">
-        <v>1544.888888888889</v>
+        <v>1396.2222222222224</v>
       </c>
       <c r="I94" t="n">
         <v>1.0</v>
@@ -3447,22 +3447,22 @@
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="D95" t="s">
         <v>190</v>
       </c>
       <c r="E95" t="n">
-        <v>937.7777777777777</v>
+        <v>835.7777777777777</v>
       </c>
       <c r="F95" t="n">
-        <v>1706.2222222222224</v>
+        <v>252.2222222222222</v>
       </c>
       <c r="G95" t="n">
-        <v>945.3333333333334</v>
+        <v>837.111111111111</v>
       </c>
       <c r="H95" t="n">
-        <v>1727.5555555555557</v>
+        <v>284.6666666666667</v>
       </c>
       <c r="I95" t="n">
         <v>1.0</v>
@@ -3476,22 +3476,22 @@
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="D96" t="s">
         <v>192</v>
       </c>
       <c r="E96" t="n">
-        <v>1015.111111111111</v>
+        <v>813.111111111111</v>
       </c>
       <c r="F96" t="n">
-        <v>1565.3333333333333</v>
+        <v>164.66666666666666</v>
       </c>
       <c r="G96" t="n">
-        <v>1033.1111111111109</v>
+        <v>831.111111111111</v>
       </c>
       <c r="H96" t="n">
-        <v>1565.3333333333333</v>
+        <v>164.66666666666666</v>
       </c>
       <c r="I96" t="n">
         <v>1.0</v>
@@ -3505,22 +3505,22 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="D97" t="s">
         <v>194</v>
       </c>
       <c r="E97" t="n">
-        <v>952.888888888889</v>
+        <v>834.888888888889</v>
       </c>
       <c r="F97" t="n">
-        <v>1567.111111111111</v>
+        <v>119.77777777777776</v>
       </c>
       <c r="G97" t="n">
-        <v>970.888888888889</v>
+        <v>834.4444444444443</v>
       </c>
       <c r="H97" t="n">
-        <v>1567.111111111111</v>
+        <v>133.55555555555557</v>
       </c>
       <c r="I97" t="n">
         <v>1.0</v>
@@ -3534,22 +3534,22 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="D98" t="s">
         <v>196</v>
       </c>
       <c r="E98" t="n">
-        <v>834.6666666666666</v>
+        <v>811.7777777777777</v>
       </c>
       <c r="F98" t="n">
-        <v>1546.2222222222224</v>
+        <v>133.1111111111111</v>
       </c>
       <c r="G98" t="n">
-        <v>852.6666666666666</v>
+        <v>829.7777777777777</v>
       </c>
       <c r="H98" t="n">
-        <v>1546.2222222222224</v>
+        <v>133.1111111111111</v>
       </c>
       <c r="I98" t="n">
         <v>1.0</v>
@@ -3563,22 +3563,22 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="D99" t="s">
         <v>198</v>
       </c>
       <c r="E99" t="n">
-        <v>1040.888888888889</v>
+        <v>835.7777777777777</v>
       </c>
       <c r="F99" t="n">
-        <v>1560.4444444444443</v>
+        <v>166.44444444444443</v>
       </c>
       <c r="G99" t="n">
-        <v>1048.888888888889</v>
+        <v>837.5555555555557</v>
       </c>
       <c r="H99" t="n">
-        <v>1548.888888888889</v>
+        <v>190.88888888888889</v>
       </c>
       <c r="I99" t="n">
         <v>1.0</v>
@@ -3592,22 +3592,22 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="D100" t="s">
         <v>200</v>
       </c>
       <c r="E100" t="n">
-        <v>942.6666666666666</v>
+        <v>836.2222222222223</v>
       </c>
       <c r="F100" t="n">
-        <v>1563.5555555555557</v>
+        <v>1395.3333333333333</v>
       </c>
       <c r="G100" t="n">
-        <v>951.111111111111</v>
+        <v>837.5555555555557</v>
       </c>
       <c r="H100" t="n">
-        <v>1544.4444444444443</v>
+        <v>1427.7777777777776</v>
       </c>
       <c r="I100" t="n">
         <v>1.0</v>
@@ -3621,22 +3621,22 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="D101" t="s">
         <v>202</v>
       </c>
       <c r="E101" t="n">
-        <v>986.6666666666666</v>
+        <v>942.6666666666666</v>
       </c>
       <c r="F101" t="n">
-        <v>1524.0</v>
+        <v>1563.5555555555557</v>
       </c>
       <c r="G101" t="n">
-        <v>1004.6666666666666</v>
+        <v>951.111111111111</v>
       </c>
       <c r="H101" t="n">
-        <v>1524.0</v>
+        <v>1544.4444444444443</v>
       </c>
       <c r="I101" t="n">
         <v>1.0</v>
@@ -3650,22 +3650,22 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="D102" t="s">
         <v>204</v>
       </c>
       <c r="E102" t="n">
-        <v>936.0</v>
+        <v>976.0</v>
       </c>
       <c r="F102" t="n">
-        <v>1530.2222222222224</v>
+        <v>1563.5555555555557</v>
       </c>
       <c r="G102" t="n">
-        <v>941.3333333333334</v>
+        <v>987.111111111111</v>
       </c>
       <c r="H102" t="n">
-        <v>1546.6666666666667</v>
+        <v>1548.0</v>
       </c>
       <c r="I102" t="n">
         <v>1.0</v>
@@ -3679,22 +3679,22 @@
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="D103" t="s">
         <v>206</v>
       </c>
       <c r="E103" t="n">
-        <v>976.0</v>
+        <v>836.2222222222223</v>
       </c>
       <c r="F103" t="n">
-        <v>1563.5555555555557</v>
+        <v>206.88888888888889</v>
       </c>
       <c r="G103" t="n">
-        <v>987.111111111111</v>
+        <v>838.0</v>
       </c>
       <c r="H103" t="n">
-        <v>1548.0</v>
+        <v>239.7777777777778</v>
       </c>
       <c r="I103" t="n">
         <v>1.0</v>
@@ -3708,22 +3708,22 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="D104" t="s">
         <v>208</v>
       </c>
       <c r="E104" t="n">
-        <v>904.0</v>
+        <v>982.2222222222223</v>
       </c>
       <c r="F104" t="n">
-        <v>1531.111111111111</v>
+        <v>1528.0</v>
       </c>
       <c r="G104" t="n">
-        <v>903.5555555555557</v>
+        <v>991.5555555555557</v>
       </c>
       <c r="H104" t="n">
-        <v>1544.4444444444443</v>
+        <v>1548.4444444444443</v>
       </c>
       <c r="I104" t="n">
         <v>1.0</v>
@@ -3737,22 +3737,22 @@
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="D105" t="s">
         <v>210</v>
       </c>
       <c r="E105" t="n">
-        <v>1008.0</v>
+        <v>986.6666666666666</v>
       </c>
       <c r="F105" t="n">
-        <v>1560.0</v>
+        <v>1524.0</v>
       </c>
       <c r="G105" t="n">
-        <v>995.111111111111</v>
+        <v>1004.6666666666666</v>
       </c>
       <c r="H105" t="n">
-        <v>1548.4444444444443</v>
+        <v>1524.0</v>
       </c>
       <c r="I105" t="n">
         <v>1.0</v>
@@ -3766,22 +3766,22 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="D106" t="s">
         <v>212</v>
       </c>
       <c r="E106" t="n">
-        <v>912.888888888889</v>
+        <v>904.0</v>
       </c>
       <c r="F106" t="n">
-        <v>1523.111111111111</v>
+        <v>1531.111111111111</v>
       </c>
       <c r="G106" t="n">
-        <v>930.888888888889</v>
+        <v>903.5555555555557</v>
       </c>
       <c r="H106" t="n">
-        <v>1523.111111111111</v>
+        <v>1544.4444444444443</v>
       </c>
       <c r="I106" t="n">
         <v>1.0</v>
@@ -3795,22 +3795,22 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="D107" t="s">
         <v>214</v>
       </c>
       <c r="E107" t="n">
-        <v>984.4444444444443</v>
+        <v>912.888888888889</v>
       </c>
       <c r="F107" t="n">
-        <v>1564.0</v>
+        <v>1523.111111111111</v>
       </c>
       <c r="G107" t="n">
-        <v>1002.4444444444443</v>
+        <v>930.888888888889</v>
       </c>
       <c r="H107" t="n">
-        <v>1564.0</v>
+        <v>1523.111111111111</v>
       </c>
       <c r="I107" t="n">
         <v>1.0</v>
@@ -3824,22 +3824,22 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="D108" t="s">
         <v>216</v>
       </c>
       <c r="E108" t="n">
-        <v>982.2222222222223</v>
+        <v>936.0</v>
       </c>
       <c r="F108" t="n">
-        <v>1528.0</v>
+        <v>1530.2222222222224</v>
       </c>
       <c r="G108" t="n">
-        <v>991.5555555555557</v>
+        <v>941.3333333333334</v>
       </c>
       <c r="H108" t="n">
-        <v>1548.4444444444443</v>
+        <v>1546.6666666666667</v>
       </c>
       <c r="I108" t="n">
         <v>1.0</v>
